--- a/Arquivos/Engajamento.xlsx
+++ b/Arquivos/Engajamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b5dde4ea31a779cd/Documentos/Mestrado/Arquivos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{611DAA19-69BC-4796-97DF-DC483A719623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6999303-89BD-4B5E-8482-B00E9F28249F}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{611DAA19-69BC-4796-97DF-DC483A719623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7841FF5-BF94-49DA-9BCB-18D3533B4597}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -885,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D103"/>
+  <dimension ref="A1:D117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110:B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1734,6 +1734,118 @@
       </c>
       <c r="D103" s="2"/>
     </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>45243</v>
+      </c>
+      <c r="B104">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>45244</v>
+      </c>
+      <c r="B105">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>45245</v>
+      </c>
+      <c r="B106">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>45246</v>
+      </c>
+      <c r="B107">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>45247</v>
+      </c>
+      <c r="B108">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>45248</v>
+      </c>
+      <c r="B109">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>45249</v>
+      </c>
+      <c r="B110">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>45250</v>
+      </c>
+      <c r="B111">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>45251</v>
+      </c>
+      <c r="B112">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>45252</v>
+      </c>
+      <c r="B113">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>45253</v>
+      </c>
+      <c r="B114">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>45254</v>
+      </c>
+      <c r="B115">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>45255</v>
+      </c>
+      <c r="B116">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B117">
+        <v>192</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Arquivos/Engajamento.xlsx
+++ b/Arquivos/Engajamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b5dde4ea31a779cd/Documentos/Mestrado/Arquivos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="8_{611DAA19-69BC-4796-97DF-DC483A719623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7841FF5-BF94-49DA-9BCB-18D3533B4597}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="8_{611DAA19-69BC-4796-97DF-DC483A719623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DA8B2A7-2F7D-4B90-8E23-ECAB1716AE0F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -885,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D117"/>
+  <dimension ref="A1:D124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110:B117"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118:B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1846,6 +1846,62 @@
         <v>192</v>
       </c>
     </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B118">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B119">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B120">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B121">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>45261</v>
+      </c>
+      <c r="B122">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>45262</v>
+      </c>
+      <c r="B123">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>45263</v>
+      </c>
+      <c r="B124">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Arquivos/Engajamento.xlsx
+++ b/Arquivos/Engajamento.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b5dde4ea31a779cd/Documentos/Mestrado/Arquivos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{611DAA19-69BC-4796-97DF-DC483A719623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DA8B2A7-2F7D-4B90-8E23-ECAB1716AE0F}"/>
+  <xr:revisionPtr revIDLastSave="143" documentId="8_{611DAA19-69BC-4796-97DF-DC483A719623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1566DBC-0BB5-49FB-AFCC-322F1D3CBA7D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,12 +33,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Data</t>
   </si>
   <si>
     <t>Segundos</t>
+  </si>
+  <si>
+    <t>Muito acesso a página de mascotes - Robô? Atrapalhou a evolução dos dados de engajamento</t>
   </si>
 </sst>
 </file>
@@ -589,9 +592,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -629,7 +632,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -735,7 +738,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -877,7 +880,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -885,10 +888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D124"/>
+  <dimension ref="A1:D222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118:B124"/>
+    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
+      <selection activeCell="B216" sqref="B216:B222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1902,6 +1905,793 @@
         <v>101</v>
       </c>
     </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>45264</v>
+      </c>
+      <c r="B125">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>45265</v>
+      </c>
+      <c r="B126">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>45266</v>
+      </c>
+      <c r="B127">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>45267</v>
+      </c>
+      <c r="B128">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>45268</v>
+      </c>
+      <c r="B129">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>45269</v>
+      </c>
+      <c r="B130">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>45270</v>
+      </c>
+      <c r="B131">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>45271</v>
+      </c>
+      <c r="B132">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>45272</v>
+      </c>
+      <c r="B133">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>45273</v>
+      </c>
+      <c r="B134">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>45274</v>
+      </c>
+      <c r="B135">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>45275</v>
+      </c>
+      <c r="B136">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>45276</v>
+      </c>
+      <c r="B137">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>45277</v>
+      </c>
+      <c r="B138">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>45278</v>
+      </c>
+      <c r="B139">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>45279</v>
+      </c>
+      <c r="B140">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>45280</v>
+      </c>
+      <c r="B141">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>45281</v>
+      </c>
+      <c r="B142">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>45282</v>
+      </c>
+      <c r="B143">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>45283</v>
+      </c>
+      <c r="B144">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>45284</v>
+      </c>
+      <c r="B145">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>45285</v>
+      </c>
+      <c r="B146">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>45286</v>
+      </c>
+      <c r="B147">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>45287</v>
+      </c>
+      <c r="B148">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>45288</v>
+      </c>
+      <c r="B149">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>45289</v>
+      </c>
+      <c r="B150">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>45290</v>
+      </c>
+      <c r="B151">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>45291</v>
+      </c>
+      <c r="B152">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>45292</v>
+      </c>
+      <c r="B153">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>45293</v>
+      </c>
+      <c r="B154">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>45294</v>
+      </c>
+      <c r="B155">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>45295</v>
+      </c>
+      <c r="B156">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>45296</v>
+      </c>
+      <c r="B157">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>45297</v>
+      </c>
+      <c r="B158">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>45298</v>
+      </c>
+      <c r="B159">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>45299</v>
+      </c>
+      <c r="B160">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>45300</v>
+      </c>
+      <c r="B161">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>45301</v>
+      </c>
+      <c r="B162">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>45302</v>
+      </c>
+      <c r="B163">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>45303</v>
+      </c>
+      <c r="B164">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <v>45304</v>
+      </c>
+      <c r="B165">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <v>45305</v>
+      </c>
+      <c r="B166">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <v>45306</v>
+      </c>
+      <c r="B167">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <v>45307</v>
+      </c>
+      <c r="B168">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <v>45308</v>
+      </c>
+      <c r="B169">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B170">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
+        <v>45310</v>
+      </c>
+      <c r="B171">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
+        <v>45311</v>
+      </c>
+      <c r="B172">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
+        <v>45312</v>
+      </c>
+      <c r="B173">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <v>45313</v>
+      </c>
+      <c r="B174">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
+        <v>45314</v>
+      </c>
+      <c r="B175">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" s="1">
+        <v>45315</v>
+      </c>
+      <c r="B176">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
+        <v>45316</v>
+      </c>
+      <c r="B177">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
+        <v>45317</v>
+      </c>
+      <c r="B178">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <v>45318</v>
+      </c>
+      <c r="B179">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
+        <v>45319</v>
+      </c>
+      <c r="B180">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <v>45320</v>
+      </c>
+      <c r="B181">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <v>45321</v>
+      </c>
+      <c r="B182">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <v>45322</v>
+      </c>
+      <c r="B183">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <v>45323</v>
+      </c>
+      <c r="B184">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <v>45324</v>
+      </c>
+      <c r="B185">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
+        <v>45325</v>
+      </c>
+      <c r="B186">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
+        <v>45326</v>
+      </c>
+      <c r="B187">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
+        <v>45327</v>
+      </c>
+      <c r="B188">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
+        <v>45328</v>
+      </c>
+      <c r="B189">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" s="1">
+        <v>45329</v>
+      </c>
+      <c r="B190">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
+        <v>45330</v>
+      </c>
+      <c r="B191">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
+        <v>45331</v>
+      </c>
+      <c r="B192">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <v>45332</v>
+      </c>
+      <c r="B193">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" s="1">
+        <v>45333</v>
+      </c>
+      <c r="B194">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" s="1">
+        <v>45334</v>
+      </c>
+      <c r="B195">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" s="1">
+        <v>45335</v>
+      </c>
+      <c r="B196">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" s="1">
+        <v>45336</v>
+      </c>
+      <c r="B197">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" s="1">
+        <v>45337</v>
+      </c>
+      <c r="B198">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" s="1">
+        <v>45338</v>
+      </c>
+      <c r="B199">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" s="1">
+        <v>45339</v>
+      </c>
+      <c r="B200">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" s="1">
+        <v>45340</v>
+      </c>
+      <c r="B201">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" s="1">
+        <v>45341</v>
+      </c>
+      <c r="B202">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" s="1">
+        <v>45342</v>
+      </c>
+      <c r="B203">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" s="1">
+        <v>45343</v>
+      </c>
+      <c r="B204">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" s="1">
+        <v>45344</v>
+      </c>
+      <c r="B205">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" s="1">
+        <v>45345</v>
+      </c>
+      <c r="B206">
+        <v>59</v>
+      </c>
+      <c r="C206" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" s="1">
+        <v>45346</v>
+      </c>
+      <c r="B207">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" s="1">
+        <v>45347</v>
+      </c>
+      <c r="B208">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" s="1">
+        <v>45348</v>
+      </c>
+      <c r="B209">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" s="1">
+        <v>45349</v>
+      </c>
+      <c r="B210">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" s="1">
+        <v>45350</v>
+      </c>
+      <c r="B211">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" s="1">
+        <v>45351</v>
+      </c>
+      <c r="B212">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" s="1">
+        <v>45352</v>
+      </c>
+      <c r="B213">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" s="1">
+        <v>45353</v>
+      </c>
+      <c r="B214">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" s="1">
+        <v>45354</v>
+      </c>
+      <c r="B215">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" s="1">
+        <v>45355</v>
+      </c>
+      <c r="B216">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B217">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" s="1">
+        <v>45357</v>
+      </c>
+      <c r="B218">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" s="1">
+        <v>45358</v>
+      </c>
+      <c r="B219">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" s="1">
+        <v>45359</v>
+      </c>
+      <c r="B220">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" s="1">
+        <v>45360</v>
+      </c>
+      <c r="B221">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" s="1">
+        <v>45361</v>
+      </c>
+      <c r="B222">
+        <v>143</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Arquivos/Engajamento.xlsx
+++ b/Arquivos/Engajamento.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b5dde4ea31a779cd/Documentos/Mestrado/Arquivos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="143" documentId="8_{611DAA19-69BC-4796-97DF-DC483A719623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1566DBC-0BB5-49FB-AFCC-322F1D3CBA7D}"/>
+  <xr:revisionPtr revIDLastSave="179" documentId="8_{611DAA19-69BC-4796-97DF-DC483A719623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AB2B301-0E73-492D-A9B9-CD2ECF57EB73}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -888,10 +888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D222"/>
+  <dimension ref="A1:D264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="B216" sqref="B216:B222"/>
+    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
+      <selection activeCell="A258" sqref="A258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2692,6 +2692,342 @@
         <v>143</v>
       </c>
     </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" s="1">
+        <v>45362</v>
+      </c>
+      <c r="B223">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" s="1">
+        <v>45363</v>
+      </c>
+      <c r="B224">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" s="1">
+        <v>45364</v>
+      </c>
+      <c r="B225">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" s="1">
+        <v>45365</v>
+      </c>
+      <c r="B226">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" s="1">
+        <v>45366</v>
+      </c>
+      <c r="B227">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" s="1">
+        <v>45367</v>
+      </c>
+      <c r="B228">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" s="1">
+        <v>45368</v>
+      </c>
+      <c r="B229">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B230">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B231">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B232">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B233">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B234">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B235">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B236">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B237">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B238">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B239">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" s="1">
+        <v>45379</v>
+      </c>
+      <c r="B240">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" s="1">
+        <v>45380</v>
+      </c>
+      <c r="B241">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" s="1">
+        <v>45381</v>
+      </c>
+      <c r="B242">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" s="1">
+        <v>45382</v>
+      </c>
+      <c r="B243">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B244">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" s="1">
+        <v>45384</v>
+      </c>
+      <c r="B245">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" s="1">
+        <v>45385</v>
+      </c>
+      <c r="B246">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" s="1">
+        <v>45386</v>
+      </c>
+      <c r="B247">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" s="1">
+        <v>45387</v>
+      </c>
+      <c r="B248">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" s="1">
+        <v>45388</v>
+      </c>
+      <c r="B249">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" s="1">
+        <v>45389</v>
+      </c>
+      <c r="B250">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" s="1">
+        <v>45390</v>
+      </c>
+      <c r="B251">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" s="1">
+        <v>45391</v>
+      </c>
+      <c r="B252">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B253">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" s="1">
+        <v>45393</v>
+      </c>
+      <c r="B254">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" s="1">
+        <v>45394</v>
+      </c>
+      <c r="B255">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" s="1">
+        <v>45395</v>
+      </c>
+      <c r="B256">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" s="1">
+        <v>45396</v>
+      </c>
+      <c r="B257">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" s="1">
+        <v>45397</v>
+      </c>
+      <c r="B258">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" s="1">
+        <v>45398</v>
+      </c>
+      <c r="B259">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" s="1">
+        <v>45399</v>
+      </c>
+      <c r="B260">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" s="1">
+        <v>45400</v>
+      </c>
+      <c r="B261">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" s="1">
+        <v>45401</v>
+      </c>
+      <c r="B262">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B263">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" s="1">
+        <v>45403</v>
+      </c>
+      <c r="B264">
+        <v>304</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Arquivos/Engajamento.xlsx
+++ b/Arquivos/Engajamento.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b5dde4ea31a779cd/Documentos/Mestrado/Arquivos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="179" documentId="8_{611DAA19-69BC-4796-97DF-DC483A719623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AB2B301-0E73-492D-A9B9-CD2ECF57EB73}"/>
+  <xr:revisionPtr revIDLastSave="228" documentId="8_{611DAA19-69BC-4796-97DF-DC483A719623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A091B33A-B4C4-48B9-A352-DF144E95A7AD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -888,10 +888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D264"/>
+  <dimension ref="A1:D306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
-      <selection activeCell="A258" sqref="A258"/>
+    <sheetView tabSelected="1" topLeftCell="A287" workbookViewId="0">
+      <selection activeCell="B300" sqref="B300:B306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3028,6 +3028,342 @@
         <v>304</v>
       </c>
     </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" s="1">
+        <v>45404</v>
+      </c>
+      <c r="B265">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" s="1">
+        <v>45405</v>
+      </c>
+      <c r="B266">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" s="1">
+        <v>45406</v>
+      </c>
+      <c r="B267">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" s="1">
+        <v>45407</v>
+      </c>
+      <c r="B268">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" s="1">
+        <v>45408</v>
+      </c>
+      <c r="B269">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" s="1">
+        <v>45409</v>
+      </c>
+      <c r="B270">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" s="1">
+        <v>45410</v>
+      </c>
+      <c r="B271">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B272">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B273">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B274">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B275">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" s="1">
+        <v>45415</v>
+      </c>
+      <c r="B276">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" s="1">
+        <v>45416</v>
+      </c>
+      <c r="B277">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" s="1">
+        <v>45417</v>
+      </c>
+      <c r="B278">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" s="1">
+        <v>45418</v>
+      </c>
+      <c r="B279">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" s="1">
+        <v>45419</v>
+      </c>
+      <c r="B280">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" s="1">
+        <v>45420</v>
+      </c>
+      <c r="B281">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" s="1">
+        <v>45421</v>
+      </c>
+      <c r="B282">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" s="1">
+        <v>45422</v>
+      </c>
+      <c r="B283">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" s="1">
+        <v>45423</v>
+      </c>
+      <c r="B284">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" s="1">
+        <v>45424</v>
+      </c>
+      <c r="B285">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B286">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" s="1">
+        <v>45426</v>
+      </c>
+      <c r="B287">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" s="1">
+        <v>45427</v>
+      </c>
+      <c r="B288">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" s="1">
+        <v>45428</v>
+      </c>
+      <c r="B289">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" s="1">
+        <v>45429</v>
+      </c>
+      <c r="B290">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" s="1">
+        <v>45430</v>
+      </c>
+      <c r="B291">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" s="1">
+        <v>45431</v>
+      </c>
+      <c r="B292">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B293">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" s="1">
+        <v>45433</v>
+      </c>
+      <c r="B294">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" s="1">
+        <v>45434</v>
+      </c>
+      <c r="B295">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" s="1">
+        <v>45435</v>
+      </c>
+      <c r="B296">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" s="1">
+        <v>45436</v>
+      </c>
+      <c r="B297">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" s="1">
+        <v>45437</v>
+      </c>
+      <c r="B298">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" s="1">
+        <v>45438</v>
+      </c>
+      <c r="B299">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" s="1">
+        <v>45439</v>
+      </c>
+      <c r="B300">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" s="1">
+        <v>45440</v>
+      </c>
+      <c r="B301">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" s="1">
+        <v>45441</v>
+      </c>
+      <c r="B302">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" s="1">
+        <v>45442</v>
+      </c>
+      <c r="B303">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" s="1">
+        <v>45443</v>
+      </c>
+      <c r="B304">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" s="1">
+        <v>45444</v>
+      </c>
+      <c r="B305">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" s="1">
+        <v>45445</v>
+      </c>
+      <c r="B306">
+        <v>157</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Arquivos/Engajamento.xlsx
+++ b/Arquivos/Engajamento.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b5dde4ea31a779cd/Documentos/Mestrado/Arquivos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="228" documentId="8_{611DAA19-69BC-4796-97DF-DC483A719623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A091B33A-B4C4-48B9-A352-DF144E95A7AD}"/>
+  <xr:revisionPtr revIDLastSave="297" documentId="8_{611DAA19-69BC-4796-97DF-DC483A719623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A551D61C-6F50-434A-8FB5-6ADD9F9E8DC4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -888,10 +888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D306"/>
+  <dimension ref="A1:D369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A287" workbookViewId="0">
-      <selection activeCell="B300" sqref="B300:B306"/>
+    <sheetView tabSelected="1" topLeftCell="A347" workbookViewId="0">
+      <selection activeCell="B363" sqref="B363:B369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3364,6 +3364,510 @@
         <v>157</v>
       </c>
     </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307" s="1">
+        <v>45446</v>
+      </c>
+      <c r="B307">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" s="1">
+        <v>45447</v>
+      </c>
+      <c r="B308">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" s="1">
+        <v>45448</v>
+      </c>
+      <c r="B309">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" s="1">
+        <v>45449</v>
+      </c>
+      <c r="B310">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" s="1">
+        <v>45450</v>
+      </c>
+      <c r="B311">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" s="1">
+        <v>45451</v>
+      </c>
+      <c r="B312">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" s="1">
+        <v>45452</v>
+      </c>
+      <c r="B313">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" s="1">
+        <v>45453</v>
+      </c>
+      <c r="B314">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" s="1">
+        <v>45454</v>
+      </c>
+      <c r="B315">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316" s="1">
+        <v>45455</v>
+      </c>
+      <c r="B316">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" s="1">
+        <v>45456</v>
+      </c>
+      <c r="B317">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" s="1">
+        <v>45457</v>
+      </c>
+      <c r="B318">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319" s="1">
+        <v>45458</v>
+      </c>
+      <c r="B319">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320" s="1">
+        <v>45459</v>
+      </c>
+      <c r="B320">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321" s="1">
+        <v>45460</v>
+      </c>
+      <c r="B321">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322" s="1">
+        <v>45461</v>
+      </c>
+      <c r="B322">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323" s="1">
+        <v>45462</v>
+      </c>
+      <c r="B323">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324" s="1">
+        <v>45463</v>
+      </c>
+      <c r="B324">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325" s="1">
+        <v>45464</v>
+      </c>
+      <c r="B325">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326" s="1">
+        <v>45465</v>
+      </c>
+      <c r="B326">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327" s="1">
+        <v>45466</v>
+      </c>
+      <c r="B327">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328" s="1">
+        <v>45467</v>
+      </c>
+      <c r="B328">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329" s="1">
+        <v>45468</v>
+      </c>
+      <c r="B329">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330" s="1">
+        <v>45469</v>
+      </c>
+      <c r="B330">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331" s="1">
+        <v>45470</v>
+      </c>
+      <c r="B331">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332" s="1">
+        <v>45471</v>
+      </c>
+      <c r="B332">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333" s="1">
+        <v>45472</v>
+      </c>
+      <c r="B333">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" s="1">
+        <v>45473</v>
+      </c>
+      <c r="B334">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B335">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B336">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B337">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338" s="1">
+        <v>45477</v>
+      </c>
+      <c r="B338">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B339">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340" s="1">
+        <v>45479</v>
+      </c>
+      <c r="B340">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341" s="1">
+        <v>45480</v>
+      </c>
+      <c r="B341">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342" s="1">
+        <v>45481</v>
+      </c>
+      <c r="B342">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343" s="1">
+        <v>45482</v>
+      </c>
+      <c r="B343">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344" s="1">
+        <v>45483</v>
+      </c>
+      <c r="B344">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345" s="1">
+        <v>45484</v>
+      </c>
+      <c r="B345">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B346">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347" s="1">
+        <v>45486</v>
+      </c>
+      <c r="B347">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348" s="1">
+        <v>45487</v>
+      </c>
+      <c r="B348">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" s="1">
+        <v>45488</v>
+      </c>
+      <c r="B349">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350" s="1">
+        <v>45489</v>
+      </c>
+      <c r="B350">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351" s="1">
+        <v>45490</v>
+      </c>
+      <c r="B351">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352" s="1">
+        <v>45491</v>
+      </c>
+      <c r="B352">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B353">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354" s="1">
+        <v>45493</v>
+      </c>
+      <c r="B354">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355" s="1">
+        <v>45494</v>
+      </c>
+      <c r="B355">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356" s="1">
+        <v>45495</v>
+      </c>
+      <c r="B356">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357" s="1">
+        <v>45496</v>
+      </c>
+      <c r="B357">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358" s="1">
+        <v>45497</v>
+      </c>
+      <c r="B358">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359" s="1">
+        <v>45498</v>
+      </c>
+      <c r="B359">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B360">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361" s="1">
+        <v>45500</v>
+      </c>
+      <c r="B361">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362" s="1">
+        <v>45501</v>
+      </c>
+      <c r="B362">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B363" s="2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364" s="1">
+        <v>45503</v>
+      </c>
+      <c r="B364" s="2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365" s="1">
+        <v>45504</v>
+      </c>
+      <c r="B365" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A366" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B366" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A367" s="1">
+        <v>45506</v>
+      </c>
+      <c r="B367" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A368" s="1">
+        <v>45507</v>
+      </c>
+      <c r="B368" s="2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A369" s="1">
+        <v>45508</v>
+      </c>
+      <c r="B369" s="2">
+        <v>242</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
